--- a/data/总结 - 20220516.xlsx
+++ b/data/总结 - 20220516.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box\Cov2_protein\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC803E15-EB13-4E01-A1CA-E620FB98CC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161C8200-0947-4983-99AE-DDA57C81CC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{E5483962-68E5-4AD9-AF09-64285FDD6BB3}"/>
+    <workbookView xWindow="-21720" yWindow="4590" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{E5483962-68E5-4AD9-AF09-64285FDD6BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="aas" sheetId="1" r:id="rId1"/>
@@ -2287,17 +2287,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA604133-E1BA-4234-BC5D-457366753123}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.75" customWidth="1"/>
-    <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="25.58203125" style="7" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25.58203125" style="7" customWidth="1"/>
     <col min="7" max="7" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.75" bestFit="1" customWidth="1"/>
